--- a/Excel/EquipGradeConfig.xlsx
+++ b/Excel/EquipGradeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,27 +27,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
   <si>
     <t>_Id</t>
   </si>
   <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>AttrId</t>
-  </si>
-  <si>
-    <t>AttrValue</t>
-  </si>
-  <si>
-    <t>AttrRise</t>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>MetailId</t>
+  </si>
+  <si>
+    <t>MetailCount</t>
+  </si>
+  <si>
+    <t>MetailId1</t>
+  </si>
+  <si>
+    <t>MetailCount1</t>
   </si>
   <si>
     <t>Id</t>
@@ -56,31 +56,172 @@
     <t>int</t>
   </si>
   <si>
-    <t>生命倍率</t>
-  </si>
-  <si>
-    <t>防御倍率</t>
-  </si>
-  <si>
-    <t>减伤倍率</t>
-  </si>
-  <si>
-    <t>法伤倍率</t>
-  </si>
-  <si>
-    <t>魔法倍率</t>
-  </si>
-  <si>
-    <t>无视防御+10%</t>
-  </si>
-  <si>
-    <t>召唤数量+1</t>
-  </si>
-  <si>
-    <t>宠物攻速</t>
-  </si>
-  <si>
-    <t>继承比例</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>50000001</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>50000002</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>50000003</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>50000004</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>50000005</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>50000006</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>50000007</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>50000008</t>
+  </si>
+  <si>
+    <t>50000009</t>
+  </si>
+  <si>
+    <t>50000010</t>
+  </si>
+  <si>
+    <t>50000011</t>
+  </si>
+  <si>
+    <t>50000012</t>
+  </si>
+  <si>
+    <t>50000013</t>
+  </si>
+  <si>
+    <t>50000014</t>
+  </si>
+  <si>
+    <t>50000015</t>
+  </si>
+  <si>
+    <t>50000016</t>
+  </si>
+  <si>
+    <t>50000017</t>
+  </si>
+  <si>
+    <t>50000018</t>
+  </si>
+  <si>
+    <t>50000019</t>
+  </si>
+  <si>
+    <t>50000020</t>
+  </si>
+  <si>
+    <t>50000021</t>
+  </si>
+  <si>
+    <t>50000022</t>
+  </si>
+  <si>
+    <t>50000023</t>
+  </si>
+  <si>
+    <t>50000024</t>
+  </si>
+  <si>
+    <t>50000025</t>
+  </si>
+  <si>
+    <t>50000026</t>
+  </si>
+  <si>
+    <t>50000027</t>
+  </si>
+  <si>
+    <t>50000028</t>
+  </si>
+  <si>
+    <t>50000029</t>
+  </si>
+  <si>
+    <t>50000030</t>
+  </si>
+  <si>
+    <t>50000031</t>
+  </si>
+  <si>
+    <t>50000032</t>
+  </si>
+  <si>
+    <t>50000033</t>
+  </si>
+  <si>
+    <t>50000034</t>
+  </si>
+  <si>
+    <t>50000035</t>
+  </si>
+  <si>
+    <t>50000036</t>
+  </si>
+  <si>
+    <t>50000037</t>
+  </si>
+  <si>
+    <t>50000038</t>
+  </si>
+  <si>
+    <t>50000039</t>
+  </si>
+  <si>
+    <t>50000040</t>
+  </si>
+  <si>
+    <t>50000041</t>
+  </si>
+  <si>
+    <t>50000042</t>
+  </si>
+  <si>
+    <t>50000043</t>
+  </si>
+  <si>
+    <t>50000044</t>
+  </si>
+  <si>
+    <t>50000045</t>
+  </si>
+  <si>
+    <t>50000046</t>
+  </si>
+  <si>
+    <t>50000047</t>
+  </si>
+  <si>
+    <t>50000048</t>
   </si>
 </sst>
 </file>
@@ -93,7 +234,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,11 +249,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -583,142 +744,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1038,130 +1205,144 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:I14"/>
+  <dimension ref="C3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="5" width="16.25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="11.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9">
-      <c r="I1" s="1" t="s">
+    <row r="3" spans="3:11">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="2" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="2" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G6" s="1">
-        <v>50</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>9</v>
+      <c r="F6" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="F7" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1169,166 +1350,1063 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G8" s="1">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
+      <c r="F8" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G9" s="1">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2005</v>
-      </c>
-      <c r="G10" s="1">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1">
-        <v>5</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1">
-        <v>30</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
+      <c r="F11" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>306</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>15</v>
+      <c r="F12" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1">
-        <v>307</v>
-      </c>
-      <c r="G13" s="1">
-        <v>50</v>
-      </c>
-      <c r="H13" s="1">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
         <v>3</v>
       </c>
-      <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="F22" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G22" s="5">
+        <v>4</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G23" s="5">
+        <v>4</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G24" s="5">
+        <v>4</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="1">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G26" s="5">
+        <v>4</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G27" s="5">
+        <v>4</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G28" s="5">
+        <v>4</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G29" s="5">
+        <v>4</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G30" s="5">
+        <v>8</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+      <c r="F31" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G31" s="5">
+        <v>8</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
+      <c r="F32" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G32" s="5">
+        <v>8</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+      <c r="F33" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G33" s="5">
+        <v>8</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4</v>
+      </c>
+      <c r="F34" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G34" s="5">
+        <v>8</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="1">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2">
+        <v>4</v>
+      </c>
+      <c r="F35" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G35" s="5">
+        <v>8</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="1">
+        <v>31</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4</v>
+      </c>
+      <c r="F36" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G36" s="5">
+        <v>8</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4</v>
+      </c>
+      <c r="F37" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G37" s="5">
+        <v>8</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="1">
+        <v>33</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G38" s="5">
+        <v>16</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39" s="1">
+        <v>34</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G39" s="5">
+        <v>16</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="1">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G40" s="5">
+        <v>16</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41" s="1">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G41" s="5">
+        <v>16</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42" s="1">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G42" s="5">
+        <v>16</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" s="1">
+        <v>38</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5</v>
+      </c>
+      <c r="F43" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G43" s="5">
+        <v>16</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" s="1">
+        <v>39</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+      <c r="F44" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G44" s="5">
+        <v>16</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" s="1">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G45" s="5">
+        <v>16</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" s="1">
+        <v>41</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2">
+        <v>6</v>
+      </c>
+      <c r="F46" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G46" s="5">
+        <v>32</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="C47" s="1">
+        <v>42</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2">
+        <v>6</v>
+      </c>
+      <c r="F47" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G47" s="5">
+        <v>32</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9">
+      <c r="C48" s="1">
+        <v>43</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="2">
+        <v>6</v>
+      </c>
+      <c r="F48" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G48" s="5">
+        <v>32</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="1">
+        <v>44</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2">
+        <v>6</v>
+      </c>
+      <c r="F49" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G49" s="5">
+        <v>32</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I49" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="C50" s="1">
+        <v>45</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="2">
+        <v>6</v>
+      </c>
+      <c r="F50" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G50" s="5">
+        <v>32</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9">
+      <c r="C51" s="1">
+        <v>46</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="2">
+        <v>6</v>
+      </c>
+      <c r="F51" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G51" s="5">
+        <v>32</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9">
+      <c r="C52" s="1">
+        <v>47</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="2">
+        <v>6</v>
+      </c>
+      <c r="F52" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G52" s="5">
+        <v>32</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I52" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53" s="1">
+        <v>48</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="2">
+        <v>6</v>
+      </c>
+      <c r="F53" s="5">
+        <v>4200</v>
+      </c>
+      <c r="G53" s="5">
+        <v>32</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I53" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="H5 I5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/EquipGradeConfig.xlsx
+++ b/Excel/EquipGradeConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>_Id</t>
   </si>
@@ -62,49 +62,49 @@
     <t>50000001</t>
   </si>
   <si>
+    <t>50000002</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>50000003</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>50000004</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>50000005</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>50000006</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>50000007</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>50000008</t>
+  </si>
+  <si>
+    <t>50000009</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>50000002</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>50000003</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>50000004</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>50000005</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>50000006</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>50000007</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>50000008</t>
-  </si>
-  <si>
-    <t>50000009</t>
   </si>
   <si>
     <t>50000010</t>
@@ -1207,8 +1207,8 @@
   <sheetPr/>
   <dimension ref="C3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1310,8 +1310,8 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
-        <v>4200</v>
+      <c r="F6" s="2">
+        <v>4011</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -1327,20 +1327,20 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
+      <c r="D7" s="2">
+        <v>2</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
-        <v>4200</v>
+      <c r="F7" s="2">
+        <v>4011</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2">
         <v>10</v>
@@ -1351,19 +1351,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
-        <v>4200</v>
+      <c r="F8" s="2">
+        <v>4011</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="2">
         <v>10</v>
@@ -1374,19 +1374,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="5">
-        <v>4200</v>
+      <c r="F9" s="2">
+        <v>4011</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2">
         <v>10</v>
@@ -1397,19 +1397,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="5">
-        <v>4200</v>
+      <c r="F10" s="2">
+        <v>4011</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="2">
         <v>10</v>
@@ -1420,19 +1420,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
-        <v>4200</v>
+      <c r="F11" s="2">
+        <v>4011</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="2">
         <v>10</v>
@@ -1443,19 +1443,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="5">
-        <v>4200</v>
+      <c r="F12" s="2">
+        <v>4011</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
@@ -1466,19 +1466,19 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="5">
-        <v>4200</v>
+      <c r="F13" s="2">
+        <v>4011</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="2">
         <v>10</v>
@@ -1494,14 +1494,14 @@
       <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="F14" s="5">
-        <v>4200</v>
+      <c r="F14" s="2">
+        <v>4011</v>
       </c>
       <c r="G14" s="5">
         <v>2</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="2">
         <v>10</v>
@@ -1512,13 +1512,13 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="5">
-        <v>4200</v>
+      <c r="F15" s="2">
+        <v>4011</v>
       </c>
       <c r="G15" s="5">
         <v>2</v>
@@ -1535,13 +1535,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
       </c>
-      <c r="F16" s="5">
-        <v>4200</v>
+      <c r="F16" s="2">
+        <v>4011</v>
       </c>
       <c r="G16" s="5">
         <v>2</v>
@@ -1558,13 +1558,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
-      <c r="F17" s="5">
-        <v>4200</v>
+      <c r="F17" s="2">
+        <v>4011</v>
       </c>
       <c r="G17" s="5">
         <v>2</v>
@@ -1581,13 +1581,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="5">
-        <v>4200</v>
+      <c r="F18" s="2">
+        <v>4011</v>
       </c>
       <c r="G18" s="5">
         <v>2</v>
@@ -1604,13 +1604,13 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
-      <c r="F19" s="5">
-        <v>4200</v>
+      <c r="F19" s="2">
+        <v>4011</v>
       </c>
       <c r="G19" s="5">
         <v>2</v>
@@ -1627,13 +1627,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
       </c>
-      <c r="F20" s="5">
-        <v>4200</v>
+      <c r="F20" s="2">
+        <v>4011</v>
       </c>
       <c r="G20" s="5">
         <v>2</v>
@@ -1650,13 +1650,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
       </c>
-      <c r="F21" s="5">
-        <v>4200</v>
+      <c r="F21" s="2">
+        <v>4011</v>
       </c>
       <c r="G21" s="5">
         <v>2</v>
@@ -1678,8 +1678,8 @@
       <c r="E22" s="2">
         <v>3</v>
       </c>
-      <c r="F22" s="5">
-        <v>4200</v>
+      <c r="F22" s="2">
+        <v>4011</v>
       </c>
       <c r="G22" s="5">
         <v>4</v>
@@ -1696,13 +1696,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E23" s="2">
         <v>3</v>
       </c>
-      <c r="F23" s="5">
-        <v>4200</v>
+      <c r="F23" s="2">
+        <v>4011</v>
       </c>
       <c r="G23" s="5">
         <v>4</v>
@@ -1719,13 +1719,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2">
         <v>3</v>
       </c>
-      <c r="F24" s="5">
-        <v>4200</v>
+      <c r="F24" s="2">
+        <v>4011</v>
       </c>
       <c r="G24" s="5">
         <v>4</v>
@@ -1742,13 +1742,13 @@
         <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2">
         <v>3</v>
       </c>
-      <c r="F25" s="5">
-        <v>4200</v>
+      <c r="F25" s="2">
+        <v>4011</v>
       </c>
       <c r="G25" s="5">
         <v>4</v>
@@ -1765,13 +1765,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2">
         <v>3</v>
       </c>
-      <c r="F26" s="5">
-        <v>4200</v>
+      <c r="F26" s="2">
+        <v>4011</v>
       </c>
       <c r="G26" s="5">
         <v>4</v>
@@ -1788,13 +1788,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="5">
-        <v>4200</v>
+      <c r="F27" s="2">
+        <v>4011</v>
       </c>
       <c r="G27" s="5">
         <v>4</v>
@@ -1811,13 +1811,13 @@
         <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="5">
-        <v>4200</v>
+      <c r="F28" s="2">
+        <v>4011</v>
       </c>
       <c r="G28" s="5">
         <v>4</v>
@@ -1834,13 +1834,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" s="2">
         <v>3</v>
       </c>
-      <c r="F29" s="5">
-        <v>4200</v>
+      <c r="F29" s="2">
+        <v>4011</v>
       </c>
       <c r="G29" s="5">
         <v>4</v>
@@ -1862,8 +1862,8 @@
       <c r="E30" s="2">
         <v>4</v>
       </c>
-      <c r="F30" s="5">
-        <v>4200</v>
+      <c r="F30" s="2">
+        <v>4011</v>
       </c>
       <c r="G30" s="5">
         <v>8</v>
@@ -1880,13 +1880,13 @@
         <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E31" s="2">
         <v>4</v>
       </c>
-      <c r="F31" s="5">
-        <v>4200</v>
+      <c r="F31" s="2">
+        <v>4011</v>
       </c>
       <c r="G31" s="5">
         <v>8</v>
@@ -1903,13 +1903,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="2">
         <v>4</v>
       </c>
-      <c r="F32" s="5">
-        <v>4200</v>
+      <c r="F32" s="2">
+        <v>4011</v>
       </c>
       <c r="G32" s="5">
         <v>8</v>
@@ -1926,13 +1926,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2">
         <v>4</v>
       </c>
-      <c r="F33" s="5">
-        <v>4200</v>
+      <c r="F33" s="2">
+        <v>4011</v>
       </c>
       <c r="G33" s="5">
         <v>8</v>
@@ -1949,13 +1949,13 @@
         <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34" s="2">
         <v>4</v>
       </c>
-      <c r="F34" s="5">
-        <v>4200</v>
+      <c r="F34" s="2">
+        <v>4011</v>
       </c>
       <c r="G34" s="5">
         <v>8</v>
@@ -1972,13 +1972,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="2">
         <v>4</v>
       </c>
-      <c r="F35" s="5">
-        <v>4200</v>
+      <c r="F35" s="2">
+        <v>4011</v>
       </c>
       <c r="G35" s="5">
         <v>8</v>
@@ -1995,13 +1995,13 @@
         <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2">
         <v>4</v>
       </c>
-      <c r="F36" s="5">
-        <v>4200</v>
+      <c r="F36" s="2">
+        <v>4011</v>
       </c>
       <c r="G36" s="5">
         <v>8</v>
@@ -2018,13 +2018,13 @@
         <v>32</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="2">
         <v>4</v>
       </c>
-      <c r="F37" s="5">
-        <v>4200</v>
+      <c r="F37" s="2">
+        <v>4011</v>
       </c>
       <c r="G37" s="5">
         <v>8</v>
@@ -2046,8 +2046,8 @@
       <c r="E38" s="2">
         <v>5</v>
       </c>
-      <c r="F38" s="5">
-        <v>4200</v>
+      <c r="F38" s="2">
+        <v>4011</v>
       </c>
       <c r="G38" s="5">
         <v>16</v>
@@ -2064,13 +2064,13 @@
         <v>34</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E39" s="2">
         <v>5</v>
       </c>
-      <c r="F39" s="5">
-        <v>4200</v>
+      <c r="F39" s="2">
+        <v>4011</v>
       </c>
       <c r="G39" s="5">
         <v>16</v>
@@ -2087,13 +2087,13 @@
         <v>35</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="2">
         <v>5</v>
       </c>
-      <c r="F40" s="5">
-        <v>4200</v>
+      <c r="F40" s="2">
+        <v>4011</v>
       </c>
       <c r="G40" s="5">
         <v>16</v>
@@ -2110,13 +2110,13 @@
         <v>36</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" s="2">
         <v>5</v>
       </c>
-      <c r="F41" s="5">
-        <v>4200</v>
+      <c r="F41" s="2">
+        <v>4011</v>
       </c>
       <c r="G41" s="5">
         <v>16</v>
@@ -2133,13 +2133,13 @@
         <v>37</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2">
         <v>5</v>
       </c>
-      <c r="F42" s="5">
-        <v>4200</v>
+      <c r="F42" s="2">
+        <v>4011</v>
       </c>
       <c r="G42" s="5">
         <v>16</v>
@@ -2156,13 +2156,13 @@
         <v>38</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="2">
         <v>5</v>
       </c>
-      <c r="F43" s="5">
-        <v>4200</v>
+      <c r="F43" s="2">
+        <v>4011</v>
       </c>
       <c r="G43" s="5">
         <v>16</v>
@@ -2179,13 +2179,13 @@
         <v>39</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2">
         <v>5</v>
       </c>
-      <c r="F44" s="5">
-        <v>4200</v>
+      <c r="F44" s="2">
+        <v>4011</v>
       </c>
       <c r="G44" s="5">
         <v>16</v>
@@ -2202,13 +2202,13 @@
         <v>40</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45" s="2">
         <v>5</v>
       </c>
-      <c r="F45" s="5">
-        <v>4200</v>
+      <c r="F45" s="2">
+        <v>4011</v>
       </c>
       <c r="G45" s="5">
         <v>16</v>
@@ -2230,8 +2230,8 @@
       <c r="E46" s="2">
         <v>6</v>
       </c>
-      <c r="F46" s="5">
-        <v>4200</v>
+      <c r="F46" s="2">
+        <v>4011</v>
       </c>
       <c r="G46" s="5">
         <v>32</v>
@@ -2248,13 +2248,13 @@
         <v>42</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E47" s="2">
         <v>6</v>
       </c>
-      <c r="F47" s="5">
-        <v>4200</v>
+      <c r="F47" s="2">
+        <v>4011</v>
       </c>
       <c r="G47" s="5">
         <v>32</v>
@@ -2271,13 +2271,13 @@
         <v>43</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" s="2">
         <v>6</v>
       </c>
-      <c r="F48" s="5">
-        <v>4200</v>
+      <c r="F48" s="2">
+        <v>4011</v>
       </c>
       <c r="G48" s="5">
         <v>32</v>
@@ -2294,13 +2294,13 @@
         <v>44</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" s="2">
         <v>6</v>
       </c>
-      <c r="F49" s="5">
-        <v>4200</v>
+      <c r="F49" s="2">
+        <v>4011</v>
       </c>
       <c r="G49" s="5">
         <v>32</v>
@@ -2317,13 +2317,13 @@
         <v>45</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" s="2">
         <v>6</v>
       </c>
-      <c r="F50" s="5">
-        <v>4200</v>
+      <c r="F50" s="2">
+        <v>4011</v>
       </c>
       <c r="G50" s="5">
         <v>32</v>
@@ -2340,13 +2340,13 @@
         <v>46</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="2">
         <v>6</v>
       </c>
-      <c r="F51" s="5">
-        <v>4200</v>
+      <c r="F51" s="2">
+        <v>4011</v>
       </c>
       <c r="G51" s="5">
         <v>32</v>
@@ -2363,13 +2363,13 @@
         <v>47</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2">
         <v>6</v>
       </c>
-      <c r="F52" s="5">
-        <v>4200</v>
+      <c r="F52" s="2">
+        <v>4011</v>
       </c>
       <c r="G52" s="5">
         <v>32</v>
@@ -2386,13 +2386,13 @@
         <v>48</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E53" s="2">
         <v>6</v>
       </c>
-      <c r="F53" s="5">
-        <v>4200</v>
+      <c r="F53" s="2">
+        <v>4011</v>
       </c>
       <c r="G53" s="5">
         <v>32</v>

--- a/Excel/EquipGradeConfig.xlsx
+++ b/Excel/EquipGradeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1207,8 +1207,8 @@
   <sheetPr/>
   <dimension ref="C3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1866,7 +1866,7 @@
         <v>4011</v>
       </c>
       <c r="G30" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>41</v>
@@ -1889,7 +1889,7 @@
         <v>4011</v>
       </c>
       <c r="G31" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>42</v>
@@ -1912,7 +1912,7 @@
         <v>4011</v>
       </c>
       <c r="G32" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>43</v>
@@ -1935,7 +1935,7 @@
         <v>4011</v>
       </c>
       <c r="G33" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>44</v>
@@ -1958,7 +1958,7 @@
         <v>4011</v>
       </c>
       <c r="G34" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>45</v>
@@ -1981,7 +1981,7 @@
         <v>4011</v>
       </c>
       <c r="G35" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>46</v>
@@ -2004,7 +2004,7 @@
         <v>4011</v>
       </c>
       <c r="G36" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>47</v>
@@ -2027,7 +2027,7 @@
         <v>4011</v>
       </c>
       <c r="G37" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>48</v>
@@ -2050,7 +2050,7 @@
         <v>4011</v>
       </c>
       <c r="G38" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>49</v>
@@ -2073,7 +2073,7 @@
         <v>4011</v>
       </c>
       <c r="G39" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>50</v>
@@ -2096,7 +2096,7 @@
         <v>4011</v>
       </c>
       <c r="G40" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>51</v>
@@ -2119,7 +2119,7 @@
         <v>4011</v>
       </c>
       <c r="G41" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>52</v>
@@ -2142,7 +2142,7 @@
         <v>4011</v>
       </c>
       <c r="G42" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>53</v>
@@ -2165,7 +2165,7 @@
         <v>4011</v>
       </c>
       <c r="G43" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -2188,7 +2188,7 @@
         <v>4011</v>
       </c>
       <c r="G44" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>55</v>
@@ -2211,7 +2211,7 @@
         <v>4011</v>
       </c>
       <c r="G45" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>56</v>
@@ -2234,7 +2234,7 @@
         <v>4011</v>
       </c>
       <c r="G46" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>57</v>
@@ -2257,7 +2257,7 @@
         <v>4011</v>
       </c>
       <c r="G47" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>58</v>
@@ -2280,7 +2280,7 @@
         <v>4011</v>
       </c>
       <c r="G48" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>59</v>
@@ -2303,7 +2303,7 @@
         <v>4011</v>
       </c>
       <c r="G49" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>60</v>
@@ -2326,7 +2326,7 @@
         <v>4011</v>
       </c>
       <c r="G50" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>61</v>
@@ -2349,7 +2349,7 @@
         <v>4011</v>
       </c>
       <c r="G51" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>62</v>
@@ -2372,7 +2372,7 @@
         <v>4011</v>
       </c>
       <c r="G52" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>63</v>
@@ -2395,7 +2395,7 @@
         <v>4011</v>
       </c>
       <c r="G53" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>64</v>

--- a/Excel/EquipGradeConfig.xlsx
+++ b/Excel/EquipGradeConfig.xlsx
@@ -234,19 +234,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -258,22 +252,8 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -744,148 +724,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1207,1206 +1182,1206 @@
   <sheetPr/>
   <dimension ref="C3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K47" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="5" width="11.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.25" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11">
-      <c r="C3" s="3" t="s">
+    <row r="3" customHeight="1" spans="3:11">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="3:11">
-      <c r="C4" s="3" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="3:11">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="3:11">
-      <c r="C5" s="3" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="3:11">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="3:9">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="3:9">
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9">
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:9">
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9">
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:9">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9">
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:9">
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9">
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:9">
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9">
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:9">
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9">
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:9">
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9">
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:9">
       <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9">
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:9">
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9">
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:9">
       <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="F15" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9">
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:9">
       <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9">
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:9">
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>2</v>
       </c>
-      <c r="F17" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9">
+      <c r="I17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:9">
       <c r="C18" s="1">
         <v>13</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>2</v>
       </c>
-      <c r="F18" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9">
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:9">
       <c r="C19" s="1">
         <v>14</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="F19" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9">
+      <c r="I19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:9">
       <c r="C20" s="1">
         <v>15</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="F20" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9">
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:9">
       <c r="C21" s="1">
         <v>16</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G21" s="1">
         <v>2</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9">
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:9">
       <c r="C22" s="1">
         <v>17</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>3</v>
       </c>
-      <c r="F22" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G22" s="1">
         <v>4</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9">
+      <c r="I22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:9">
       <c r="C23" s="1">
         <v>18</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>3</v>
       </c>
-      <c r="F23" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G23" s="1">
         <v>4</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9">
+      <c r="I23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:9">
       <c r="C24" s="1">
         <v>19</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>3</v>
       </c>
-      <c r="F24" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G24" s="1">
         <v>4</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9">
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:9">
       <c r="C25" s="1">
         <v>20</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>3</v>
       </c>
-      <c r="F25" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G25" s="1">
         <v>4</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9">
+      <c r="I25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:9">
       <c r="C26" s="1">
         <v>21</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>3</v>
       </c>
-      <c r="F26" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G26" s="1">
         <v>4</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9">
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:9">
       <c r="C27" s="1">
         <v>22</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>3</v>
       </c>
-      <c r="F27" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G27" s="1">
         <v>4</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9">
+      <c r="I27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:9">
       <c r="C28" s="1">
         <v>23</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>3</v>
       </c>
-      <c r="F28" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G28" s="1">
         <v>4</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9">
+      <c r="I28" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:9">
       <c r="C29" s="1">
         <v>24</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G29" s="1">
         <v>4</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9">
+      <c r="I29" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:9">
       <c r="C30" s="1">
         <v>25</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>4</v>
       </c>
-      <c r="F30" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G30" s="1">
         <v>7</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9">
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:9">
       <c r="C31" s="1">
         <v>26</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>4</v>
       </c>
-      <c r="F31" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G31" s="1">
         <v>7</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9">
+      <c r="I31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:9">
       <c r="C32" s="1">
         <v>27</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>4</v>
       </c>
-      <c r="F32" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G32" s="1">
         <v>7</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9">
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:9">
       <c r="C33" s="1">
         <v>28</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>4</v>
       </c>
-      <c r="F33" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G33" s="1">
         <v>7</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9">
+      <c r="I33" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:9">
       <c r="C34" s="1">
         <v>29</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>4</v>
       </c>
-      <c r="F34" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G34" s="1">
         <v>7</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9">
+      <c r="I34" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:9">
       <c r="C35" s="1">
         <v>30</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>4</v>
       </c>
-      <c r="F35" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G35" s="1">
         <v>7</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I35" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9">
+      <c r="I35" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:9">
       <c r="C36" s="1">
         <v>31</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>4</v>
       </c>
-      <c r="F36" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G36" s="1">
         <v>7</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9">
+      <c r="I36" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:9">
       <c r="C37" s="1">
         <v>32</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>4</v>
       </c>
-      <c r="F37" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G37" s="1">
         <v>7</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I37" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9">
+      <c r="I37" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:9">
       <c r="C38" s="1">
         <v>33</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>5</v>
       </c>
-      <c r="F38" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G38" s="1">
         <v>11</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I38" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9">
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:9">
       <c r="C39" s="1">
         <v>34</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>5</v>
       </c>
-      <c r="F39" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G39" s="5">
+      <c r="F39" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G39" s="1">
         <v>11</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I39" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9">
+      <c r="I39" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:9">
       <c r="C40" s="1">
         <v>35</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>5</v>
       </c>
-      <c r="F40" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G40" s="5">
+      <c r="F40" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G40" s="1">
         <v>11</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9">
+      <c r="I40" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:9">
       <c r="C41" s="1">
         <v>36</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>5</v>
       </c>
-      <c r="F41" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="F41" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G41" s="1">
         <v>11</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9">
+      <c r="I41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:9">
       <c r="C42" s="1">
         <v>37</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>5</v>
       </c>
-      <c r="F42" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G42" s="5">
+      <c r="F42" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G42" s="1">
         <v>11</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I42" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9">
+      <c r="I42" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:9">
       <c r="C43" s="1">
         <v>38</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>5</v>
       </c>
-      <c r="F43" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G43" s="5">
+      <c r="F43" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G43" s="1">
         <v>11</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I43" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9">
+      <c r="I43" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:9">
       <c r="C44" s="1">
         <v>39</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>5</v>
       </c>
-      <c r="F44" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G44" s="5">
+      <c r="F44" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G44" s="1">
         <v>11</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I44" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9">
+      <c r="I44" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:9">
       <c r="C45" s="1">
         <v>40</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>5</v>
       </c>
-      <c r="F45" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G45" s="5">
+      <c r="F45" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G45" s="1">
         <v>11</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9">
+      <c r="I45" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:9">
       <c r="C46" s="1">
         <v>41</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>6</v>
       </c>
-      <c r="F46" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G46" s="5">
+      <c r="F46" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G46" s="1">
         <v>16</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9">
+      <c r="I46" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:9">
       <c r="C47" s="1">
         <v>42</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>6</v>
       </c>
-      <c r="F47" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G47" s="5">
+      <c r="F47" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G47" s="1">
         <v>16</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I47" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9">
+      <c r="I47" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:9">
       <c r="C48" s="1">
         <v>43</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>6</v>
       </c>
-      <c r="F48" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G48" s="5">
+      <c r="F48" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G48" s="1">
         <v>16</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I48" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9">
+      <c r="I48" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:9">
       <c r="C49" s="1">
         <v>44</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>6</v>
       </c>
-      <c r="F49" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G49" s="5">
+      <c r="F49" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G49" s="1">
         <v>16</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9">
+      <c r="I49" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:9">
       <c r="C50" s="1">
         <v>45</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>6</v>
       </c>
-      <c r="F50" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G50" s="5">
+      <c r="F50" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G50" s="1">
         <v>16</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I50" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9">
+      <c r="I50" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:9">
       <c r="C51" s="1">
         <v>46</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>6</v>
       </c>
-      <c r="F51" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G51" s="5">
+      <c r="F51" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G51" s="1">
         <v>16</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I51" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9">
+      <c r="I51" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:9">
       <c r="C52" s="1">
         <v>47</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>6</v>
       </c>
-      <c r="F52" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G52" s="5">
+      <c r="F52" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G52" s="1">
         <v>16</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H52" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I52" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9">
+      <c r="I52" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:9">
       <c r="C53" s="1">
         <v>48</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>6</v>
       </c>
-      <c r="F53" s="2">
-        <v>4011</v>
-      </c>
-      <c r="G53" s="5">
+      <c r="F53" s="1">
+        <v>4011</v>
+      </c>
+      <c r="G53" s="1">
         <v>16</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="H5 I5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="H5:I5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/EquipGradeConfig.xlsx
+++ b/Excel/EquipGradeConfig.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="红色" sheetId="1" r:id="rId1"/>
+    <sheet name="金色" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,11 +28,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="122">
   <si>
     <t>_Id</t>
   </si>
   <si>
+    <t>Quanlity</t>
+  </si>
+  <si>
     <t>Part</t>
   </si>
   <si>
@@ -62,6 +66,9 @@
     <t>50000001</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>50000002</t>
   </si>
   <si>
@@ -104,9 +111,6 @@
     <t>50000009</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>50000010</t>
   </si>
   <si>
@@ -222,6 +226,174 @@
   </si>
   <si>
     <t>50000048</t>
+  </si>
+  <si>
+    <t>50000049</t>
+  </si>
+  <si>
+    <t>50000050</t>
+  </si>
+  <si>
+    <t>50000051</t>
+  </si>
+  <si>
+    <t>50000052</t>
+  </si>
+  <si>
+    <t>50000053</t>
+  </si>
+  <si>
+    <t>50000054</t>
+  </si>
+  <si>
+    <t>50000055</t>
+  </si>
+  <si>
+    <t>50000056</t>
+  </si>
+  <si>
+    <t>50000057</t>
+  </si>
+  <si>
+    <t>50000058</t>
+  </si>
+  <si>
+    <t>50000059</t>
+  </si>
+  <si>
+    <t>50000060</t>
+  </si>
+  <si>
+    <t>50000061</t>
+  </si>
+  <si>
+    <t>50000062</t>
+  </si>
+  <si>
+    <t>50000063</t>
+  </si>
+  <si>
+    <t>50000064</t>
+  </si>
+  <si>
+    <t>50000065</t>
+  </si>
+  <si>
+    <t>50000066</t>
+  </si>
+  <si>
+    <t>50000067</t>
+  </si>
+  <si>
+    <t>50000068</t>
+  </si>
+  <si>
+    <t>50000069</t>
+  </si>
+  <si>
+    <t>50000070</t>
+  </si>
+  <si>
+    <t>50000071</t>
+  </si>
+  <si>
+    <t>50000072</t>
+  </si>
+  <si>
+    <t>50000073</t>
+  </si>
+  <si>
+    <t>50000074</t>
+  </si>
+  <si>
+    <t>50000075</t>
+  </si>
+  <si>
+    <t>50000076</t>
+  </si>
+  <si>
+    <t>50000077</t>
+  </si>
+  <si>
+    <t>50000078</t>
+  </si>
+  <si>
+    <t>50000079</t>
+  </si>
+  <si>
+    <t>50000080</t>
+  </si>
+  <si>
+    <t>50000081</t>
+  </si>
+  <si>
+    <t>50000082</t>
+  </si>
+  <si>
+    <t>50000083</t>
+  </si>
+  <si>
+    <t>50000084</t>
+  </si>
+  <si>
+    <t>50000085</t>
+  </si>
+  <si>
+    <t>50000086</t>
+  </si>
+  <si>
+    <t>50000087</t>
+  </si>
+  <si>
+    <t>50000088</t>
+  </si>
+  <si>
+    <t>50000089</t>
+  </si>
+  <si>
+    <t>50000090</t>
+  </si>
+  <si>
+    <t>50000091</t>
+  </si>
+  <si>
+    <t>50000092</t>
+  </si>
+  <si>
+    <t>50000093</t>
+  </si>
+  <si>
+    <t>50000094</t>
+  </si>
+  <si>
+    <t>50000095</t>
+  </si>
+  <si>
+    <t>50000096</t>
+  </si>
+  <si>
+    <t>50000097</t>
+  </si>
+  <si>
+    <t>50000098</t>
+  </si>
+  <si>
+    <t>50000099</t>
+  </si>
+  <si>
+    <t>50000100</t>
+  </si>
+  <si>
+    <t>50000101</t>
+  </si>
+  <si>
+    <t>50000102</t>
+  </si>
+  <si>
+    <t>50000103</t>
+  </si>
+  <si>
+    <t>50000104</t>
   </si>
 </sst>
 </file>
@@ -1180,27 +1352,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K53"/>
+  <dimension ref="C3:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K47" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="5" width="11.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="6" width="11.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" customHeight="1" spans="3:11">
+    <row r="3" customHeight="1" spans="3:12">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1222,12 +1394,15 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" customHeight="1" spans="3:11">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="3:12">
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -1247,1145 +1422,4373 @@
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" customHeight="1" spans="3:11">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="3:12">
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" customHeight="1" spans="3:9">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="3:10">
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>4011</v>
-      </c>
       <c r="G6" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:9">
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:10">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <v>4011</v>
-      </c>
       <c r="G7" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:9">
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:10">
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
-        <v>4011</v>
-      </c>
       <c r="G8" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:9">
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:10">
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <v>4011</v>
-      </c>
       <c r="G9" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:9">
+      <c r="I9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:10">
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
-        <v>4011</v>
-      </c>
       <c r="G10" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:9">
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:10">
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
-        <v>4011</v>
-      </c>
       <c r="G11" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:9">
+      <c r="I11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:10">
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
-        <v>4011</v>
-      </c>
       <c r="G12" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:9">
+      <c r="I12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:10">
       <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1">
-        <v>4011</v>
-      </c>
       <c r="G13" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:9">
+      <c r="I13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:10">
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="1">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="1">
-        <v>4011</v>
-      </c>
       <c r="G14" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:9">
+      <c r="I14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:10">
       <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="F15" s="1">
-        <v>4011</v>
-      </c>
       <c r="G15" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:9">
+      <c r="I15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:10">
       <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="1">
-        <v>4011</v>
-      </c>
       <c r="G16" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:9">
+      <c r="I16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:10">
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="F17" s="1">
-        <v>4011</v>
-      </c>
       <c r="G17" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H17" s="1">
         <v>2</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:9">
+      <c r="I17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:10">
       <c r="C18" s="1">
         <v>13</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="1">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1">
         <v>2</v>
       </c>
-      <c r="F18" s="1">
-        <v>4011</v>
-      </c>
       <c r="G18" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H18" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:9">
+      <c r="I18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:10">
       <c r="C19" s="1">
         <v>14</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1">
         <v>2</v>
       </c>
-      <c r="F19" s="1">
-        <v>4011</v>
-      </c>
       <c r="G19" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:9">
+      <c r="I19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:10">
       <c r="C20" s="1">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="1">
         <v>2</v>
       </c>
-      <c r="F20" s="1">
-        <v>4011</v>
-      </c>
       <c r="G20" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H20" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:9">
+      <c r="I20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:10">
       <c r="C21" s="1">
         <v>16</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="1">
-        <v>4011</v>
-      </c>
       <c r="G21" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H21" s="1">
         <v>2</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:9">
+      <c r="I21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:10">
       <c r="C22" s="1">
         <v>17</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="1">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="F22" s="1">
-        <v>4011</v>
-      </c>
       <c r="G22" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H22" s="1">
         <v>4</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:9">
+      <c r="I22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:10">
       <c r="C23" s="1">
         <v>18</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1">
         <v>3</v>
       </c>
-      <c r="F23" s="1">
-        <v>4011</v>
-      </c>
       <c r="G23" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H23" s="1">
         <v>4</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:9">
+      <c r="I23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:10">
       <c r="C24" s="1">
         <v>19</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1">
         <v>3</v>
       </c>
-      <c r="F24" s="1">
-        <v>4011</v>
-      </c>
       <c r="G24" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H24" s="1">
         <v>4</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:9">
+      <c r="I24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:10">
       <c r="C25" s="1">
         <v>20</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1">
         <v>3</v>
       </c>
-      <c r="F25" s="1">
-        <v>4011</v>
-      </c>
       <c r="G25" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H25" s="1">
         <v>4</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:9">
+      <c r="I25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:10">
       <c r="C26" s="1">
         <v>21</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1">
         <v>3</v>
       </c>
-      <c r="F26" s="1">
-        <v>4011</v>
-      </c>
       <c r="G26" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H26" s="1">
         <v>4</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:9">
+      <c r="I26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:10">
       <c r="C27" s="1">
         <v>22</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1">
         <v>3</v>
       </c>
-      <c r="F27" s="1">
-        <v>4011</v>
-      </c>
       <c r="G27" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H27" s="1">
         <v>4</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:9">
+      <c r="I27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:10">
       <c r="C28" s="1">
         <v>23</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="1">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="1">
         <v>3</v>
       </c>
-      <c r="F28" s="1">
-        <v>4011</v>
-      </c>
       <c r="G28" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H28" s="1">
         <v>4</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:9">
+      <c r="I28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:10">
       <c r="C29" s="1">
         <v>24</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="1">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="1">
-        <v>4011</v>
-      </c>
       <c r="G29" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H29" s="1">
         <v>4</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:9">
+      <c r="I29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:10">
       <c r="C30" s="1">
         <v>25</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="1">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
         <v>4</v>
       </c>
-      <c r="F30" s="1">
-        <v>4011</v>
-      </c>
       <c r="G30" s="1">
-        <v>7</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:9">
+        <v>4011</v>
+      </c>
+      <c r="H30" s="1">
+        <v>7</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:10">
       <c r="C31" s="1">
         <v>26</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="F31" s="1">
-        <v>4011</v>
-      </c>
       <c r="G31" s="1">
-        <v>7</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:9">
+        <v>4011</v>
+      </c>
+      <c r="H31" s="1">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:10">
       <c r="C32" s="1">
         <v>27</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="1">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="1">
         <v>4</v>
       </c>
-      <c r="F32" s="1">
-        <v>4011</v>
-      </c>
       <c r="G32" s="1">
-        <v>7</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:9">
+        <v>4011</v>
+      </c>
+      <c r="H32" s="1">
+        <v>7</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:10">
       <c r="C33" s="1">
         <v>28</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="1">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="1">
         <v>4</v>
       </c>
-      <c r="F33" s="1">
-        <v>4011</v>
-      </c>
       <c r="G33" s="1">
-        <v>7</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:9">
+        <v>4011</v>
+      </c>
+      <c r="H33" s="1">
+        <v>7</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:10">
       <c r="C34" s="1">
         <v>29</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1">
         <v>4</v>
       </c>
-      <c r="F34" s="1">
-        <v>4011</v>
-      </c>
       <c r="G34" s="1">
-        <v>7</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:9">
+        <v>4011</v>
+      </c>
+      <c r="H34" s="1">
+        <v>7</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:10">
       <c r="C35" s="1">
         <v>30</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="1">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="1">
         <v>4</v>
       </c>
-      <c r="F35" s="1">
-        <v>4011</v>
-      </c>
       <c r="G35" s="1">
-        <v>7</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:9">
+        <v>4011</v>
+      </c>
+      <c r="H35" s="1">
+        <v>7</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:10">
       <c r="C36" s="1">
         <v>31</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D36" s="1">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="1">
         <v>4</v>
       </c>
-      <c r="F36" s="1">
-        <v>4011</v>
-      </c>
       <c r="G36" s="1">
-        <v>7</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:9">
+        <v>4011</v>
+      </c>
+      <c r="H36" s="1">
+        <v>7</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:10">
       <c r="C37" s="1">
         <v>32</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D37" s="1">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="1">
         <v>4</v>
       </c>
-      <c r="F37" s="1">
-        <v>4011</v>
-      </c>
       <c r="G37" s="1">
-        <v>7</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I37" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:9">
+        <v>4011</v>
+      </c>
+      <c r="H37" s="1">
+        <v>7</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:10">
       <c r="C38" s="1">
         <v>33</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D38" s="1">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
         <v>5</v>
       </c>
-      <c r="F38" s="1">
-        <v>4011</v>
-      </c>
       <c r="G38" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H38" s="1">
         <v>11</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I38" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:9">
+      <c r="I38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:10">
       <c r="C39" s="1">
         <v>34</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D39" s="1">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1">
         <v>5</v>
       </c>
-      <c r="F39" s="1">
-        <v>4011</v>
-      </c>
       <c r="G39" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H39" s="1">
         <v>11</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I39" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:9">
+      <c r="I39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:10">
       <c r="C40" s="1">
         <v>35</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D40" s="1">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="1">
         <v>5</v>
       </c>
-      <c r="F40" s="1">
-        <v>4011</v>
-      </c>
       <c r="G40" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H40" s="1">
         <v>11</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:9">
+      <c r="I40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:10">
       <c r="C41" s="1">
         <v>36</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="D41" s="1">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1">
         <v>5</v>
       </c>
-      <c r="F41" s="1">
-        <v>4011</v>
-      </c>
       <c r="G41" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H41" s="1">
         <v>11</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:9">
+      <c r="I41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:10">
       <c r="C42" s="1">
         <v>37</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="1">
         <v>5</v>
       </c>
-      <c r="F42" s="1">
-        <v>4011</v>
-      </c>
       <c r="G42" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H42" s="1">
         <v>11</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:9">
+      <c r="I42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:10">
       <c r="C43" s="1">
         <v>38</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="D43" s="1">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="1">
         <v>5</v>
       </c>
-      <c r="F43" s="1">
-        <v>4011</v>
-      </c>
       <c r="G43" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H43" s="1">
         <v>11</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I43" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:9">
+      <c r="I43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:10">
       <c r="C44" s="1">
         <v>39</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="D44" s="1">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="1">
         <v>5</v>
       </c>
-      <c r="F44" s="1">
-        <v>4011</v>
-      </c>
       <c r="G44" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H44" s="1">
         <v>11</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I44" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:9">
+      <c r="I44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:10">
       <c r="C45" s="1">
         <v>40</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="D45" s="1">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="1">
         <v>5</v>
       </c>
-      <c r="F45" s="1">
-        <v>4011</v>
-      </c>
       <c r="G45" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H45" s="1">
         <v>11</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I45" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:9">
+      <c r="I45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:10">
       <c r="C46" s="1">
         <v>41</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="1">
-        <v>6</v>
+      <c r="D46" s="1">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F46" s="1">
-        <v>4011</v>
+        <v>6</v>
       </c>
       <c r="G46" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H46" s="1">
         <v>16</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I46" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:9">
+      <c r="I46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J46" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:10">
       <c r="C47" s="1">
         <v>42</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="1">
-        <v>6</v>
+      <c r="D47" s="1">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F47" s="1">
-        <v>4011</v>
+        <v>6</v>
       </c>
       <c r="G47" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H47" s="1">
         <v>16</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I47" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:9">
+      <c r="I47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:10">
       <c r="C48" s="1">
         <v>43</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="1">
-        <v>6</v>
+      <c r="D48" s="1">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F48" s="1">
-        <v>4011</v>
+        <v>6</v>
       </c>
       <c r="G48" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H48" s="1">
         <v>16</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I48" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:9">
+      <c r="I48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:10">
       <c r="C49" s="1">
         <v>44</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="1">
-        <v>6</v>
+      <c r="D49" s="1">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F49" s="1">
-        <v>4011</v>
+        <v>6</v>
       </c>
       <c r="G49" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H49" s="1">
         <v>16</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:9">
+      <c r="I49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J49" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:10">
       <c r="C50" s="1">
         <v>45</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="1">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="1">
+        <v>6</v>
+      </c>
+      <c r="G50" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H50" s="1">
         <v>16</v>
       </c>
-      <c r="E50" s="1">
-        <v>6</v>
-      </c>
-      <c r="F50" s="1">
-        <v>4011</v>
-      </c>
-      <c r="G50" s="1">
-        <v>16</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:9">
+      <c r="I50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:10">
       <c r="C51" s="1">
         <v>46</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="1">
-        <v>6</v>
+      <c r="D51" s="1">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F51" s="1">
-        <v>4011</v>
+        <v>6</v>
       </c>
       <c r="G51" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H51" s="1">
         <v>16</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I51" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:9">
+      <c r="I51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J51" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:10">
       <c r="C52" s="1">
         <v>47</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="1">
-        <v>6</v>
+      <c r="D52" s="1">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F52" s="1">
-        <v>4011</v>
+        <v>6</v>
       </c>
       <c r="G52" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H52" s="1">
         <v>16</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I52" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:9">
+      <c r="I52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J52" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:10">
       <c r="C53" s="1">
         <v>48</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="1">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="1">
+        <v>6</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H53" s="1">
+        <v>16</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J53" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:10">
+      <c r="C54" s="1">
+        <v>49</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1">
+        <v>7</v>
+      </c>
+      <c r="G54" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H54" s="1">
         <v>22</v>
       </c>
-      <c r="E53" s="1">
-        <v>6</v>
-      </c>
-      <c r="F53" s="1">
-        <v>4011</v>
-      </c>
-      <c r="G53" s="1">
+      <c r="I54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J54" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:10">
+      <c r="C55" s="1">
+        <v>50</v>
+      </c>
+      <c r="D55" s="1">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="1">
+        <v>7</v>
+      </c>
+      <c r="G55" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H55" s="1">
+        <v>22</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J55" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:10">
+      <c r="C56" s="1">
+        <v>51</v>
+      </c>
+      <c r="D56" s="1">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="1">
+        <v>7</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H56" s="1">
+        <v>22</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J56" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:10">
+      <c r="C57" s="1">
+        <v>52</v>
+      </c>
+      <c r="D57" s="1">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="F57" s="1">
+        <v>7</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H57" s="1">
+        <v>22</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J57" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:10">
+      <c r="C58" s="1">
+        <v>53</v>
+      </c>
+      <c r="D58" s="1">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="1">
+        <v>7</v>
+      </c>
+      <c r="G58" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H58" s="1">
+        <v>22</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J58" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:10">
+      <c r="C59" s="1">
+        <v>54</v>
+      </c>
+      <c r="D59" s="1">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H59" s="1">
+        <v>22</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J59" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:10">
+      <c r="C60" s="1">
+        <v>55</v>
+      </c>
+      <c r="D60" s="1">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="1">
+        <v>7</v>
+      </c>
+      <c r="G60" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H60" s="1">
+        <v>22</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J60" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:10">
+      <c r="C61" s="1">
+        <v>56</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="1">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H61" s="1">
+        <v>22</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J61" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:10">
+      <c r="C62" s="1">
+        <v>57</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H62" s="1">
+        <v>29</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J62" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:10">
+      <c r="C63" s="1">
+        <v>58</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="1">
+        <v>8</v>
+      </c>
+      <c r="G63" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H63" s="1">
+        <v>29</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J63" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:10">
+      <c r="C64" s="1">
+        <v>59</v>
+      </c>
+      <c r="D64" s="1">
+        <v>6</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="1">
+        <v>8</v>
+      </c>
+      <c r="G64" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H64" s="1">
+        <v>29</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J64" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:10">
+      <c r="C65" s="1">
+        <v>60</v>
+      </c>
+      <c r="D65" s="1">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="1">
+        <v>8</v>
+      </c>
+      <c r="G65" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H65" s="1">
+        <v>29</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J65" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:10">
+      <c r="C66" s="1">
+        <v>61</v>
+      </c>
+      <c r="D66" s="1">
+        <v>6</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="1">
+        <v>8</v>
+      </c>
+      <c r="G66" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H66" s="1">
+        <v>29</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J66" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:10">
+      <c r="C67" s="1">
+        <v>62</v>
+      </c>
+      <c r="D67" s="1">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="1">
+        <v>8</v>
+      </c>
+      <c r="G67" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H67" s="1">
+        <v>29</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J67" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:10">
+      <c r="C68" s="1">
+        <v>63</v>
+      </c>
+      <c r="D68" s="1">
+        <v>6</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="1">
+        <v>8</v>
+      </c>
+      <c r="G68" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H68" s="1">
+        <v>29</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J68" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:10">
+      <c r="C69" s="1">
         <v>64</v>
       </c>
-      <c r="I53" s="1">
-        <v>10</v>
+      <c r="D69" s="1">
+        <v>6</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="1">
+        <v>8</v>
+      </c>
+      <c r="G69" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H69" s="1">
+        <v>29</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J69" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:10">
+      <c r="C70" s="1">
+        <v>65</v>
+      </c>
+      <c r="D70" s="1">
+        <v>6</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1">
+        <v>8</v>
+      </c>
+      <c r="G70" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H70" s="1">
+        <v>29</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J70" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:10">
+      <c r="C71" s="1">
+        <v>66</v>
+      </c>
+      <c r="D71" s="1">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="1">
+        <v>9</v>
+      </c>
+      <c r="G71" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H71" s="1">
+        <v>37</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J71" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:10">
+      <c r="C72" s="1">
+        <v>67</v>
+      </c>
+      <c r="D72" s="1">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="1">
+        <v>9</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H72" s="1">
+        <v>37</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J72" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:10">
+      <c r="C73" s="1">
+        <v>68</v>
+      </c>
+      <c r="D73" s="1">
+        <v>6</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="1">
+        <v>9</v>
+      </c>
+      <c r="G73" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H73" s="1">
+        <v>37</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J73" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:10">
+      <c r="C74" s="1">
+        <v>69</v>
+      </c>
+      <c r="D74" s="1">
+        <v>6</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="1">
+        <v>9</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H74" s="1">
+        <v>37</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J74" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:10">
+      <c r="C75" s="1">
+        <v>70</v>
+      </c>
+      <c r="D75" s="1">
+        <v>6</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="1">
+        <v>9</v>
+      </c>
+      <c r="G75" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H75" s="1">
+        <v>37</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J75" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:10">
+      <c r="C76" s="1">
+        <v>71</v>
+      </c>
+      <c r="D76" s="1">
+        <v>6</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="1">
+        <v>9</v>
+      </c>
+      <c r="G76" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H76" s="1">
+        <v>37</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J76" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:10">
+      <c r="C77" s="1">
+        <v>72</v>
+      </c>
+      <c r="D77" s="1">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="1">
+        <v>9</v>
+      </c>
+      <c r="G77" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H77" s="1">
+        <v>37</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J77" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:10">
+      <c r="C78" s="1">
+        <v>73</v>
+      </c>
+      <c r="D78" s="1">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="1">
+        <v>10</v>
+      </c>
+      <c r="G78" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H78" s="1">
+        <v>46</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J78" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:10">
+      <c r="C79" s="1">
+        <v>74</v>
+      </c>
+      <c r="D79" s="1">
+        <v>6</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="1">
+        <v>10</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H79" s="1">
+        <v>46</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:10">
+      <c r="C80" s="1">
+        <v>75</v>
+      </c>
+      <c r="D80" s="1">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="1">
+        <v>10</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H80" s="1">
+        <v>46</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J80" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:10">
+      <c r="C81" s="1">
+        <v>76</v>
+      </c>
+      <c r="D81" s="1">
+        <v>6</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="1">
+        <v>10</v>
+      </c>
+      <c r="G81" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H81" s="1">
+        <v>46</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J81" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:10">
+      <c r="C82" s="1">
+        <v>77</v>
+      </c>
+      <c r="D82" s="1">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="1">
+        <v>10</v>
+      </c>
+      <c r="G82" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H82" s="1">
+        <v>46</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J82" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:10">
+      <c r="C83" s="1">
+        <v>78</v>
+      </c>
+      <c r="D83" s="1">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="1">
+        <v>10</v>
+      </c>
+      <c r="G83" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H83" s="1">
+        <v>46</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J83" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:10">
+      <c r="C84" s="1">
+        <v>79</v>
+      </c>
+      <c r="D84" s="1">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="1">
+        <v>10</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H84" s="1">
+        <v>46</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J84" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:10">
+      <c r="C85" s="1">
+        <v>80</v>
+      </c>
+      <c r="D85" s="1">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="1">
+        <v>10</v>
+      </c>
+      <c r="G85" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H85" s="1">
+        <v>46</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J85" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:10">
+      <c r="C86" s="1">
+        <v>81</v>
+      </c>
+      <c r="D86" s="1">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="1">
+        <v>11</v>
+      </c>
+      <c r="G86" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H86" s="1">
+        <v>56</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J86" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:10">
+      <c r="C87" s="1">
+        <v>82</v>
+      </c>
+      <c r="D87" s="1">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="1">
+        <v>11</v>
+      </c>
+      <c r="G87" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H87" s="1">
+        <v>56</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J87" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:10">
+      <c r="C88" s="1">
+        <v>83</v>
+      </c>
+      <c r="D88" s="1">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="1">
+        <v>11</v>
+      </c>
+      <c r="G88" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H88" s="1">
+        <v>56</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J88" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:10">
+      <c r="C89" s="1">
+        <v>84</v>
+      </c>
+      <c r="D89" s="1">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="1">
+        <v>11</v>
+      </c>
+      <c r="G89" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H89" s="1">
+        <v>56</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J89" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:10">
+      <c r="C90" s="1">
+        <v>85</v>
+      </c>
+      <c r="D90" s="1">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="1">
+        <v>11</v>
+      </c>
+      <c r="G90" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H90" s="1">
+        <v>56</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J90" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:10">
+      <c r="C91" s="1">
+        <v>86</v>
+      </c>
+      <c r="D91" s="1">
+        <v>6</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="1">
+        <v>11</v>
+      </c>
+      <c r="G91" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H91" s="1">
+        <v>56</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J91" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:10">
+      <c r="C92" s="1">
+        <v>87</v>
+      </c>
+      <c r="D92" s="1">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="1">
+        <v>11</v>
+      </c>
+      <c r="G92" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H92" s="1">
+        <v>56</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J92" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:10">
+      <c r="C93" s="1">
+        <v>88</v>
+      </c>
+      <c r="D93" s="1">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="1">
+        <v>11</v>
+      </c>
+      <c r="G93" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H93" s="1">
+        <v>56</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J93" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:10">
+      <c r="C94" s="1">
+        <v>89</v>
+      </c>
+      <c r="D94" s="1">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="1">
+        <v>12</v>
+      </c>
+      <c r="G94" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H94" s="1">
+        <v>67</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J94" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:10">
+      <c r="C95" s="1">
+        <v>90</v>
+      </c>
+      <c r="D95" s="1">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="1">
+        <v>12</v>
+      </c>
+      <c r="G95" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H95" s="1">
+        <v>67</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J95" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:10">
+      <c r="C96" s="1">
+        <v>91</v>
+      </c>
+      <c r="D96" s="1">
+        <v>6</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="1">
+        <v>12</v>
+      </c>
+      <c r="G96" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H96" s="1">
+        <v>67</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J96" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:10">
+      <c r="C97" s="1">
+        <v>92</v>
+      </c>
+      <c r="D97" s="1">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="1">
+        <v>12</v>
+      </c>
+      <c r="G97" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H97" s="1">
+        <v>67</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J97" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:10">
+      <c r="C98" s="1">
+        <v>93</v>
+      </c>
+      <c r="D98" s="1">
+        <v>6</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="1">
+        <v>12</v>
+      </c>
+      <c r="G98" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H98" s="1">
+        <v>67</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J98" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:10">
+      <c r="C99" s="1">
+        <v>94</v>
+      </c>
+      <c r="D99" s="1">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="1">
+        <v>12</v>
+      </c>
+      <c r="G99" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H99" s="1">
+        <v>67</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J99" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:10">
+      <c r="C100" s="1">
+        <v>95</v>
+      </c>
+      <c r="D100" s="1">
+        <v>6</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" s="1">
+        <v>12</v>
+      </c>
+      <c r="G100" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H100" s="1">
+        <v>67</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J100" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:10">
+      <c r="C101" s="1">
+        <v>96</v>
+      </c>
+      <c r="D101" s="1">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="1">
+        <v>12</v>
+      </c>
+      <c r="G101" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H101" s="1">
+        <v>67</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J101" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:10">
+      <c r="C102" s="1">
+        <v>97</v>
+      </c>
+      <c r="D102" s="1">
+        <v>6</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="1">
+        <v>13</v>
+      </c>
+      <c r="G102" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H102" s="1">
+        <v>79</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J102" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:10">
+      <c r="C103" s="1">
+        <v>98</v>
+      </c>
+      <c r="D103" s="1">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="1">
+        <v>13</v>
+      </c>
+      <c r="G103" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H103" s="1">
+        <v>79</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J103" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:10">
+      <c r="C104" s="1">
+        <v>99</v>
+      </c>
+      <c r="D104" s="1">
+        <v>6</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="1">
+        <v>13</v>
+      </c>
+      <c r="G104" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H104" s="1">
+        <v>79</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J104" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:10">
+      <c r="C105" s="1">
+        <v>100</v>
+      </c>
+      <c r="D105" s="1">
+        <v>6</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="1">
+        <v>13</v>
+      </c>
+      <c r="G105" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H105" s="1">
+        <v>79</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J105" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="3:10">
+      <c r="C106" s="1">
+        <v>101</v>
+      </c>
+      <c r="D106" s="1">
+        <v>6</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="1">
+        <v>13</v>
+      </c>
+      <c r="G106" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H106" s="1">
+        <v>79</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J106" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="3:10">
+      <c r="C107" s="1">
+        <v>102</v>
+      </c>
+      <c r="D107" s="1">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="1">
+        <v>13</v>
+      </c>
+      <c r="G107" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H107" s="1">
+        <v>79</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J107" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="3:10">
+      <c r="C108" s="1">
+        <v>103</v>
+      </c>
+      <c r="D108" s="1">
+        <v>6</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="1">
+        <v>13</v>
+      </c>
+      <c r="G108" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H108" s="1">
+        <v>79</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J108" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="3:10">
+      <c r="C109" s="1">
+        <v>104</v>
+      </c>
+      <c r="D109" s="1">
+        <v>6</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" s="1">
+        <v>13</v>
+      </c>
+      <c r="G109" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H109" s="1">
+        <v>79</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J109" s="1">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="H5:I5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="I5:J5 C3:D5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:L61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="6" width="11.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C9" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C11" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C12" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C13" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C14" s="1">
+        <v>1009</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14:J61" si="0">H14*10</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C15" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C17" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H17" s="1">
+        <v>20</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C18" s="1">
+        <v>1013</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H18" s="1">
+        <v>20</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C19" s="1">
+        <v>1014</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H19" s="1">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C20" s="1">
+        <v>1015</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H20" s="1">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C21" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H21" s="1">
+        <v>20</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C22" s="1">
+        <v>1017</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H22" s="1">
+        <v>30</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C23" s="1">
+        <v>1018</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H23" s="1">
+        <v>30</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C24" s="1">
+        <v>1019</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H24" s="1">
+        <v>30</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C25" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H25" s="1">
+        <v>30</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C26" s="1">
+        <v>1021</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H26" s="1">
+        <v>30</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C27" s="1">
+        <v>1022</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H27" s="1">
+        <v>30</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C28" s="1">
+        <v>1023</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1">
+        <v>29</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H28" s="1">
+        <v>30</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C29" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H29" s="1">
+        <v>30</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C30" s="1">
+        <v>1025</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>21</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H30" s="1">
+        <v>40</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C31" s="1">
+        <v>1026</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1">
+        <v>22</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H31" s="1">
+        <v>40</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C32" s="1">
+        <v>1027</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>23</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H32" s="1">
+        <v>40</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C33" s="1">
+        <v>1028</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1">
+        <v>24</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H33" s="1">
+        <v>40</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C34" s="1">
+        <v>1029</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1">
+        <v>25</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H34" s="1">
+        <v>40</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C35" s="1">
+        <v>1030</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1">
+        <v>27</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H35" s="1">
+        <v>40</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C36" s="1">
+        <v>1031</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1">
+        <v>29</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H36" s="1">
+        <v>40</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C37" s="1">
+        <v>1032</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1">
+        <v>30</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H37" s="1">
+        <v>40</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C38" s="1">
+        <v>1033</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1">
+        <v>21</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H38" s="1">
+        <v>50</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C39" s="1">
+        <v>1034</v>
+      </c>
+      <c r="D39" s="1">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1">
+        <v>22</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H39" s="1">
+        <v>50</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C40" s="1">
+        <v>1035</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1">
+        <v>23</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H40" s="1">
+        <v>50</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C41" s="1">
+        <v>1036</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1">
+        <v>24</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H41" s="1">
+        <v>50</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C42" s="1">
+        <v>1037</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1">
+        <v>25</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H42" s="1">
+        <v>50</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C43" s="1">
+        <v>1038</v>
+      </c>
+      <c r="D43" s="1">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1">
+        <v>27</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H43" s="1">
+        <v>50</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C44" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D44" s="1">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1">
+        <v>29</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H44" s="1">
+        <v>50</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C45" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>30</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H45" s="1">
+        <v>50</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C46" s="1">
+        <v>1041</v>
+      </c>
+      <c r="D46" s="1">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1">
+        <v>21</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H46" s="1">
+        <v>60</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C47" s="1">
+        <v>1042</v>
+      </c>
+      <c r="D47" s="1">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1">
+        <v>22</v>
+      </c>
+      <c r="F47" s="1">
+        <v>6</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H47" s="1">
+        <v>60</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C48" s="1">
+        <v>1043</v>
+      </c>
+      <c r="D48" s="1">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1">
+        <v>23</v>
+      </c>
+      <c r="F48" s="1">
+        <v>6</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H48" s="1">
+        <v>60</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C49" s="1">
+        <v>1044</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1">
+        <v>24</v>
+      </c>
+      <c r="F49" s="1">
+        <v>6</v>
+      </c>
+      <c r="G49" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H49" s="1">
+        <v>60</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C50" s="1">
+        <v>1045</v>
+      </c>
+      <c r="D50" s="1">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1">
+        <v>25</v>
+      </c>
+      <c r="F50" s="1">
+        <v>6</v>
+      </c>
+      <c r="G50" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H50" s="1">
+        <v>60</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C51" s="1">
+        <v>1046</v>
+      </c>
+      <c r="D51" s="1">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1">
+        <v>27</v>
+      </c>
+      <c r="F51" s="1">
+        <v>6</v>
+      </c>
+      <c r="G51" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H51" s="1">
+        <v>60</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C52" s="1">
+        <v>1047</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1">
+        <v>29</v>
+      </c>
+      <c r="F52" s="1">
+        <v>6</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H52" s="1">
+        <v>60</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C53" s="1">
+        <v>1048</v>
+      </c>
+      <c r="D53" s="1">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1">
+        <v>30</v>
+      </c>
+      <c r="F53" s="1">
+        <v>6</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H53" s="1">
+        <v>60</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C54" s="1">
+        <v>1049</v>
+      </c>
+      <c r="D54" s="1">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1">
+        <v>21</v>
+      </c>
+      <c r="F54" s="1">
+        <v>7</v>
+      </c>
+      <c r="G54" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H54" s="1">
+        <v>70</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C55" s="1">
+        <v>1050</v>
+      </c>
+      <c r="D55" s="1">
+        <v>7</v>
+      </c>
+      <c r="E55" s="1">
+        <v>22</v>
+      </c>
+      <c r="F55" s="1">
+        <v>6</v>
+      </c>
+      <c r="G55" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H55" s="1">
+        <v>70</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C56" s="1">
+        <v>1051</v>
+      </c>
+      <c r="D56" s="1">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1">
+        <v>23</v>
+      </c>
+      <c r="F56" s="1">
+        <v>6</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H56" s="1">
+        <v>70</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C57" s="1">
+        <v>1052</v>
+      </c>
+      <c r="D57" s="1">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1">
+        <v>24</v>
+      </c>
+      <c r="F57" s="1">
+        <v>6</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H57" s="1">
+        <v>70</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C58" s="1">
+        <v>1053</v>
+      </c>
+      <c r="D58" s="1">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1">
+        <v>25</v>
+      </c>
+      <c r="F58" s="1">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H58" s="1">
+        <v>70</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C59" s="1">
+        <v>1054</v>
+      </c>
+      <c r="D59" s="1">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1">
+        <v>27</v>
+      </c>
+      <c r="F59" s="1">
+        <v>6</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H59" s="1">
+        <v>70</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C60" s="1">
+        <v>1055</v>
+      </c>
+      <c r="D60" s="1">
+        <v>7</v>
+      </c>
+      <c r="E60" s="1">
+        <v>29</v>
+      </c>
+      <c r="F60" s="1">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H60" s="1">
+        <v>70</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C61" s="1">
+        <v>1056</v>
+      </c>
+      <c r="D61" s="1">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1">
+        <v>30</v>
+      </c>
+      <c r="F61" s="1">
+        <v>6</v>
+      </c>
+      <c r="G61" s="1">
+        <v>4019</v>
+      </c>
+      <c r="H61" s="1">
+        <v>70</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="I5:J5 C3:D5" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Excel/EquipGradeConfig.xlsx
+++ b/Excel/EquipGradeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="红色" sheetId="1" r:id="rId1"/>
@@ -1354,8 +1354,8 @@
   <sheetPr/>
   <dimension ref="C3:L109"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3131,7 +3131,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G70" s="1">
         <v>4011</v>
@@ -4176,8 +4176,8 @@
   <sheetPr/>
   <dimension ref="C3:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>

--- a/Excel/EquipGradeConfig.xlsx
+++ b/Excel/EquipGradeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="红色" sheetId="1" r:id="rId1"/>
@@ -1354,7 +1354,7 @@
   <sheetPr/>
   <dimension ref="C3:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
@@ -4176,8 +4176,8 @@
   <sheetPr/>
   <dimension ref="C3:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -4295,12 +4295,13 @@
         <v>4019</v>
       </c>
       <c r="H6" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>66</v>
       </c>
       <c r="J6" s="1">
+        <f t="shared" ref="J6:J61" si="0">H6*5</f>
         <v>100</v>
       </c>
     </row>
@@ -4321,12 +4322,13 @@
         <v>4019</v>
       </c>
       <c r="H7" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="J7" s="1">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -4347,12 +4349,13 @@
         <v>4019</v>
       </c>
       <c r="H8" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="1">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -4373,12 +4376,13 @@
         <v>4019</v>
       </c>
       <c r="H9" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>69</v>
       </c>
       <c r="J9" s="1">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -4399,12 +4403,13 @@
         <v>4019</v>
       </c>
       <c r="H10" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J10" s="1">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -4425,12 +4430,13 @@
         <v>4019</v>
       </c>
       <c r="H11" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>71</v>
       </c>
       <c r="J11" s="1">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -4451,12 +4457,13 @@
         <v>4019</v>
       </c>
       <c r="H12" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>72</v>
       </c>
       <c r="J12" s="1">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -4477,12 +4484,13 @@
         <v>4019</v>
       </c>
       <c r="H13" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>73</v>
       </c>
       <c r="J13" s="1">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -4503,13 +4511,13 @@
         <v>4019</v>
       </c>
       <c r="H14" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>74</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ref="J14:J61" si="0">H14*10</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
@@ -4530,7 +4538,7 @@
         <v>4019</v>
       </c>
       <c r="H15" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>75</v>
@@ -4557,7 +4565,7 @@
         <v>4019</v>
       </c>
       <c r="H16" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>76</v>
@@ -4584,7 +4592,7 @@
         <v>4019</v>
       </c>
       <c r="H17" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>77</v>
@@ -4611,7 +4619,7 @@
         <v>4019</v>
       </c>
       <c r="H18" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>78</v>
@@ -4638,7 +4646,7 @@
         <v>4019</v>
       </c>
       <c r="H19" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>79</v>
@@ -4665,7 +4673,7 @@
         <v>4019</v>
       </c>
       <c r="H20" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>80</v>
@@ -4692,7 +4700,7 @@
         <v>4019</v>
       </c>
       <c r="H21" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>81</v>
@@ -4719,7 +4727,7 @@
         <v>4019</v>
       </c>
       <c r="H22" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>82</v>
@@ -4746,7 +4754,7 @@
         <v>4019</v>
       </c>
       <c r="H23" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>83</v>
@@ -4773,7 +4781,7 @@
         <v>4019</v>
       </c>
       <c r="H24" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>84</v>
@@ -4800,7 +4808,7 @@
         <v>4019</v>
       </c>
       <c r="H25" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>85</v>
@@ -4827,7 +4835,7 @@
         <v>4019</v>
       </c>
       <c r="H26" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>86</v>
@@ -4854,7 +4862,7 @@
         <v>4019</v>
       </c>
       <c r="H27" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>87</v>
@@ -4881,7 +4889,7 @@
         <v>4019</v>
       </c>
       <c r="H28" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>88</v>
@@ -4908,7 +4916,7 @@
         <v>4019</v>
       </c>
       <c r="H29" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>89</v>
@@ -4935,7 +4943,7 @@
         <v>4019</v>
       </c>
       <c r="H30" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>90</v>
@@ -4962,7 +4970,7 @@
         <v>4019</v>
       </c>
       <c r="H31" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>91</v>
@@ -4989,7 +4997,7 @@
         <v>4019</v>
       </c>
       <c r="H32" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>92</v>
@@ -5016,7 +5024,7 @@
         <v>4019</v>
       </c>
       <c r="H33" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>93</v>
@@ -5043,7 +5051,7 @@
         <v>4019</v>
       </c>
       <c r="H34" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>94</v>
@@ -5070,7 +5078,7 @@
         <v>4019</v>
       </c>
       <c r="H35" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>95</v>
@@ -5097,7 +5105,7 @@
         <v>4019</v>
       </c>
       <c r="H36" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>96</v>
@@ -5124,7 +5132,7 @@
         <v>4019</v>
       </c>
       <c r="H37" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>97</v>
@@ -5151,7 +5159,7 @@
         <v>4019</v>
       </c>
       <c r="H38" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>98</v>
@@ -5178,7 +5186,7 @@
         <v>4019</v>
       </c>
       <c r="H39" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>99</v>
@@ -5205,7 +5213,7 @@
         <v>4019</v>
       </c>
       <c r="H40" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>100</v>
@@ -5232,7 +5240,7 @@
         <v>4019</v>
       </c>
       <c r="H41" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>101</v>
@@ -5259,7 +5267,7 @@
         <v>4019</v>
       </c>
       <c r="H42" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>102</v>
@@ -5286,7 +5294,7 @@
         <v>4019</v>
       </c>
       <c r="H43" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>103</v>
@@ -5313,7 +5321,7 @@
         <v>4019</v>
       </c>
       <c r="H44" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>104</v>
@@ -5340,7 +5348,7 @@
         <v>4019</v>
       </c>
       <c r="H45" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>105</v>
@@ -5367,14 +5375,14 @@
         <v>4019</v>
       </c>
       <c r="H46" s="1">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>106</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5394,14 +5402,14 @@
         <v>4019</v>
       </c>
       <c r="H47" s="1">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>107</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5421,14 +5429,14 @@
         <v>4019</v>
       </c>
       <c r="H48" s="1">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>108</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5448,14 +5456,14 @@
         <v>4019</v>
       </c>
       <c r="H49" s="1">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>109</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5475,14 +5483,14 @@
         <v>4019</v>
       </c>
       <c r="H50" s="1">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>110</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5502,14 +5510,14 @@
         <v>4019</v>
       </c>
       <c r="H51" s="1">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>111</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5529,14 +5537,14 @@
         <v>4019</v>
       </c>
       <c r="H52" s="1">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>112</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5556,14 +5564,14 @@
         <v>4019</v>
       </c>
       <c r="H53" s="1">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>113</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5583,14 +5591,14 @@
         <v>4019</v>
       </c>
       <c r="H54" s="1">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>114</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5604,20 +5612,20 @@
         <v>22</v>
       </c>
       <c r="F55" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G55" s="1">
         <v>4019</v>
       </c>
       <c r="H55" s="1">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>115</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5631,20 +5639,20 @@
         <v>23</v>
       </c>
       <c r="F56" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G56" s="1">
         <v>4019</v>
       </c>
       <c r="H56" s="1">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>116</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5658,20 +5666,20 @@
         <v>24</v>
       </c>
       <c r="F57" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G57" s="1">
         <v>4019</v>
       </c>
       <c r="H57" s="1">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>117</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5685,20 +5693,20 @@
         <v>25</v>
       </c>
       <c r="F58" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G58" s="1">
         <v>4019</v>
       </c>
       <c r="H58" s="1">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>118</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5712,20 +5720,20 @@
         <v>27</v>
       </c>
       <c r="F59" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G59" s="1">
         <v>4019</v>
       </c>
       <c r="H59" s="1">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>119</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5739,20 +5747,20 @@
         <v>29</v>
       </c>
       <c r="F60" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G60" s="1">
         <v>4019</v>
       </c>
       <c r="H60" s="1">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -5766,20 +5774,20 @@
         <v>30</v>
       </c>
       <c r="F61" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G61" s="1">
         <v>4019</v>
       </c>
       <c r="H61" s="1">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>121</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EquipGradeConfig.xlsx
+++ b/Excel/EquipGradeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="红色" sheetId="1" r:id="rId1"/>
@@ -1354,8 +1354,8 @@
   <sheetPr/>
   <dimension ref="C3:L109"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3143,7 +3143,7 @@
         <v>82</v>
       </c>
       <c r="J70" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="3:10">
@@ -4176,8 +4176,8 @@
   <sheetPr/>
   <dimension ref="C3:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
